--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\technex\technexuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="772">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3059,6 +3059,36 @@
   </si>
   <si>
     <t>Bhilai Institute of Technology (BIT) , Raipur</t>
+  </si>
+  <si>
+    <t>IIT KANPUR</t>
+  </si>
+  <si>
+    <t>IIT KHARAGPUR</t>
+  </si>
+  <si>
+    <t>Kharagpur</t>
+  </si>
+  <si>
+    <t>IIT INDORE</t>
+  </si>
+  <si>
+    <t>IIT Ropar</t>
+  </si>
+  <si>
+    <t>Ropar</t>
+  </si>
+  <si>
+    <t>IIT Mandi</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>IIT Hyderabad</t>
+  </si>
+  <si>
+    <t>IIT Guwahati</t>
   </si>
 </sst>
 </file>
@@ -3443,10 +3473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F538"/>
+  <dimension ref="A1:F544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="A538" sqref="A538"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12660,7 +12690,7 @@
         <v>720</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B537" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B544" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13124,7 +13154,130 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="5"/>
+      <c r="A538" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B538" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT KANPUR</v>
+      </c>
+      <c r="C538">
+        <v>541</v>
+      </c>
+      <c r="E538" t="s">
+        <v>47</v>
+      </c>
+      <c r="F538" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>763</v>
+      </c>
+      <c r="B539" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT KHARAGPUR</v>
+      </c>
+      <c r="C539">
+        <v>542</v>
+      </c>
+      <c r="E539" t="s">
+        <v>764</v>
+      </c>
+      <c r="F539" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>765</v>
+      </c>
+      <c r="B540" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT INDORE</v>
+      </c>
+      <c r="C540">
+        <v>543</v>
+      </c>
+      <c r="E540" t="s">
+        <v>22</v>
+      </c>
+      <c r="F540" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>766</v>
+      </c>
+      <c r="B541" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT ROPAR</v>
+      </c>
+      <c r="C541">
+        <v>544</v>
+      </c>
+      <c r="E541" t="s">
+        <v>767</v>
+      </c>
+      <c r="F541" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>768</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT MANDI</v>
+      </c>
+      <c r="C542">
+        <v>545</v>
+      </c>
+      <c r="E542" t="s">
+        <v>598</v>
+      </c>
+      <c r="F542" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>770</v>
+      </c>
+      <c r="B543" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT HYDERABAD</v>
+      </c>
+      <c r="C543">
+        <v>546</v>
+      </c>
+      <c r="E543" t="s">
+        <v>30</v>
+      </c>
+      <c r="F543" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>771</v>
+      </c>
+      <c r="B544" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT GUWAHATI</v>
+      </c>
+      <c r="C544">
+        <v>547</v>
+      </c>
+      <c r="E544" t="s">
+        <v>20</v>
+      </c>
+      <c r="F544" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:G523">

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="773">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3089,6 +3089,9 @@
   </si>
   <si>
     <t>Haryana</t>
+  </si>
+  <si>
+    <t>Uttrakhand</t>
   </si>
 </sst>
 </file>
@@ -3475,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="B405" workbookViewId="0">
+      <selection activeCell="F327" sqref="F327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4663,7 +4666,7 @@
         <v>158</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B65:B127" si="1">UPPER(A66)</f>
+        <f t="shared" ref="B66:B127" si="1">UPPER(A66)</f>
         <v>BIRLA INSTITUTE OF TECHNOLOGY AND SCIENCE (BITS), PILANI HYDERABAD</v>
       </c>
       <c r="C66">
@@ -9372,7 +9375,7 @@
         <v>307</v>
       </c>
       <c r="F327" t="s">
-        <v>480</v>
+        <v>772</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="779">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3092,6 +3092,24 @@
   </si>
   <si>
     <t>Uttrakhand</t>
+  </si>
+  <si>
+    <t>IISER , Bhopal</t>
+  </si>
+  <si>
+    <t>Moradabad Institute of Technology (MIT) , Moradabad</t>
+  </si>
+  <si>
+    <t>IIMT Engineering College (127) , Meerut</t>
+  </si>
+  <si>
+    <t>University Institute of Engineering and Technology (UIET) , CSJM , Kanpur</t>
+  </si>
+  <si>
+    <t>Chhatrapati Shahu Ji Maharaj University (CSJMU) , Kanpur</t>
+  </si>
+  <si>
+    <t>Ramamanohar Lohia College Of Law (RMLCL) , Bangalore</t>
   </si>
 </sst>
 </file>
@@ -3476,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F544"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B405" workbookViewId="0">
-      <selection activeCell="F327" sqref="F327"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="A550" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12693,7 +12711,7 @@
         <v>719</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B544" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B550" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13280,6 +13298,114 @@
       </c>
       <c r="F544" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>773</v>
+      </c>
+      <c r="B545" t="str">
+        <f t="shared" si="10"/>
+        <v>IISER , BHOPAL</v>
+      </c>
+      <c r="C545">
+        <v>548</v>
+      </c>
+      <c r="E545" t="s">
+        <v>12</v>
+      </c>
+      <c r="F545" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>774</v>
+      </c>
+      <c r="B546" t="str">
+        <f t="shared" si="10"/>
+        <v>MORADABAD INSTITUTE OF TECHNOLOGY (MIT) , MORADABAD</v>
+      </c>
+      <c r="C546">
+        <v>549</v>
+      </c>
+      <c r="E546" t="s">
+        <v>234</v>
+      </c>
+      <c r="F546" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>775</v>
+      </c>
+      <c r="B547" t="str">
+        <f t="shared" si="10"/>
+        <v>IIMT ENGINEERING COLLEGE (127) , MEERUT</v>
+      </c>
+      <c r="C547">
+        <v>550</v>
+      </c>
+      <c r="E547" t="s">
+        <v>222</v>
+      </c>
+      <c r="F547" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>776</v>
+      </c>
+      <c r="B548" t="str">
+        <f t="shared" si="10"/>
+        <v>UNIVERSITY INSTITUTE OF ENGINEERING AND TECHNOLOGY (UIET) , CSJM , KANPUR</v>
+      </c>
+      <c r="C548">
+        <v>551</v>
+      </c>
+      <c r="E548" t="s">
+        <v>46</v>
+      </c>
+      <c r="F548" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>777</v>
+      </c>
+      <c r="B549" t="str">
+        <f t="shared" si="10"/>
+        <v>CHHATRAPATI SHAHU JI MAHARAJ UNIVERSITY (CSJMU) , KANPUR</v>
+      </c>
+      <c r="C549">
+        <v>552</v>
+      </c>
+      <c r="E549" t="s">
+        <v>46</v>
+      </c>
+      <c r="F549" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>778</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" si="10"/>
+        <v>RAMAMANOHAR LOHIA COLLEGE OF LAW (RMLCL) , BANGALORE</v>
+      </c>
+      <c r="C550">
+        <v>553</v>
+      </c>
+      <c r="E550" t="s">
+        <v>77</v>
+      </c>
+      <c r="F550" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="782">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3110,6 +3110,15 @@
   </si>
   <si>
     <t>Ramamanohar Lohia College Of Law (RMLCL) , Bangalore</t>
+  </si>
+  <si>
+    <t>Siddaganga Institute of Technology (SIT) , Bangalore</t>
+  </si>
+  <si>
+    <t>KLE S.Nijalingappa College , Bangalore</t>
+  </si>
+  <si>
+    <t>IIT Gandhinagar</t>
   </si>
 </sst>
 </file>
@@ -3494,10 +3503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:F553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="A550" sqref="A550"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12711,7 +12720,7 @@
         <v>719</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B550" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B553" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13406,6 +13415,60 @@
       </c>
       <c r="F550" s="4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>779</v>
+      </c>
+      <c r="B551" t="str">
+        <f t="shared" si="10"/>
+        <v>SIDDAGANGA INSTITUTE OF TECHNOLOGY (SIT) , BANGALORE</v>
+      </c>
+      <c r="C551">
+        <v>554</v>
+      </c>
+      <c r="E551" t="s">
+        <v>77</v>
+      </c>
+      <c r="F551" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>780</v>
+      </c>
+      <c r="B552" t="str">
+        <f t="shared" si="10"/>
+        <v>KLE S.NIJALINGAPPA COLLEGE , BANGALORE</v>
+      </c>
+      <c r="C552">
+        <v>555</v>
+      </c>
+      <c r="E552" t="s">
+        <v>77</v>
+      </c>
+      <c r="F552" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>781</v>
+      </c>
+      <c r="B553" t="str">
+        <f t="shared" si="10"/>
+        <v>IIT GANDHINAGAR</v>
+      </c>
+      <c r="C553">
+        <v>556</v>
+      </c>
+      <c r="E553" t="s">
+        <v>520</v>
+      </c>
+      <c r="F553" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="801">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3120,12 +3120,69 @@
   <si>
     <t>IIT Gandhinagar</t>
   </si>
+  <si>
+    <t>GD Rungta College of Engineering and Technology (GDRCET) , Bhilai</t>
+  </si>
+  <si>
+    <t>Bharath university , Chennai</t>
+  </si>
+  <si>
+    <t>Thapar University , Patiala</t>
+  </si>
+  <si>
+    <t>Jai Prakash University (JP), Chapra</t>
+  </si>
+  <si>
+    <t>Chapra</t>
+  </si>
+  <si>
+    <t>Assam Don Bosco University - Azara Campus , Guwahati</t>
+  </si>
+  <si>
+    <t>Babulal Tarabai Institute of Research and Technology (BTIRT), Sagar</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Anand Engineering College (AEC) , Agra</t>
+  </si>
+  <si>
+    <t>PDM College of Engineering (PDMCE) , Bahadurgarh</t>
+  </si>
+  <si>
+    <t>Bahadurgarh</t>
+  </si>
+  <si>
+    <t>Government Model Engineering College (MEC) , Kochi</t>
+  </si>
+  <si>
+    <t>International Institute of Information Technology (IIIT), Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Ideal Institute of Technology , Ghaziabad</t>
+  </si>
+  <si>
+    <t>Delhi Institute of Tool Engineering , Delhi</t>
+  </si>
+  <si>
+    <t>National Institute of Technology (NIT) , Delhi</t>
+  </si>
+  <si>
+    <t>IGNOU , MUZZAFARPUR</t>
+  </si>
+  <si>
+    <t>IGNOU , Delhi</t>
+  </si>
+  <si>
+    <t>MBICEM GGSIPU , DELHI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3165,6 +3222,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3192,13 +3255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3503,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="B553" sqref="B553"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="A570" sqref="A570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12720,7 +12784,7 @@
         <v>719</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B553" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B569" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13469,6 +13533,294 @@
       </c>
       <c r="F553" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>782</v>
+      </c>
+      <c r="B554" t="str">
+        <f t="shared" si="10"/>
+        <v>GD RUNGTA COLLEGE OF ENGINEERING AND TECHNOLOGY (GDRCET) , BHILAI</v>
+      </c>
+      <c r="C554">
+        <v>557</v>
+      </c>
+      <c r="E554" t="s">
+        <v>181</v>
+      </c>
+      <c r="F554" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>783</v>
+      </c>
+      <c r="B555" t="str">
+        <f t="shared" si="10"/>
+        <v>BHARATH UNIVERSITY , CHENNAI</v>
+      </c>
+      <c r="C555">
+        <v>558</v>
+      </c>
+      <c r="E555" t="s">
+        <v>59</v>
+      </c>
+      <c r="F555" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>784</v>
+      </c>
+      <c r="B556" t="str">
+        <f t="shared" si="10"/>
+        <v>THAPAR UNIVERSITY , PATIALA</v>
+      </c>
+      <c r="C556">
+        <v>559</v>
+      </c>
+      <c r="E556" t="s">
+        <v>301</v>
+      </c>
+      <c r="F556" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>785</v>
+      </c>
+      <c r="B557" t="str">
+        <f t="shared" si="10"/>
+        <v>JAI PRAKASH UNIVERSITY (JP), CHAPRA</v>
+      </c>
+      <c r="C557">
+        <v>560</v>
+      </c>
+      <c r="E557" t="s">
+        <v>786</v>
+      </c>
+      <c r="F557" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>787</v>
+      </c>
+      <c r="B558" t="str">
+        <f t="shared" si="10"/>
+        <v>ASSAM DON BOSCO UNIVERSITY - AZARA CAMPUS , GUWAHATI</v>
+      </c>
+      <c r="C558">
+        <v>561</v>
+      </c>
+      <c r="E558" t="s">
+        <v>19</v>
+      </c>
+      <c r="F558" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B559" t="str">
+        <f t="shared" si="10"/>
+        <v>BABULAL TARABAI INSTITUTE OF RESEARCH AND TECHNOLOGY (BTIRT), SAGAR</v>
+      </c>
+      <c r="C559">
+        <v>562</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F559" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" si="10"/>
+        <v>ANAND ENGINEERING COLLEGE (AEC) , AGRA</v>
+      </c>
+      <c r="C560">
+        <v>563</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F560" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B561" t="str">
+        <f t="shared" si="10"/>
+        <v>PDM COLLEGE OF ENGINEERING (PDMCE) , BAHADURGARH</v>
+      </c>
+      <c r="C561">
+        <v>564</v>
+      </c>
+      <c r="E561" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B562" t="str">
+        <f t="shared" si="10"/>
+        <v>GOVERNMENT MODEL ENGINEERING COLLEGE (MEC) , KOCHI</v>
+      </c>
+      <c r="C562">
+        <v>565</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F562" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B563" t="str">
+        <f t="shared" si="10"/>
+        <v>INTERNATIONAL INSTITUTE OF INFORMATION TECHNOLOGY (IIIT), BHUBANESWAR</v>
+      </c>
+      <c r="C563">
+        <v>566</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F563" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B564" t="str">
+        <f t="shared" si="10"/>
+        <v>IDEAL INSTITUTE OF TECHNOLOGY , GHAZIABAD</v>
+      </c>
+      <c r="C564">
+        <v>567</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F564" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B565" t="str">
+        <f t="shared" si="10"/>
+        <v>DELHI INSTITUTE OF TOOL ENGINEERING , DELHI</v>
+      </c>
+      <c r="C565">
+        <v>568</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F565" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B566" t="str">
+        <f t="shared" si="10"/>
+        <v>NATIONAL INSTITUTE OF TECHNOLOGY (NIT) , DELHI</v>
+      </c>
+      <c r="C566">
+        <v>569</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F566" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>798</v>
+      </c>
+      <c r="B567" t="str">
+        <f t="shared" si="10"/>
+        <v>IGNOU , MUZZAFARPUR</v>
+      </c>
+      <c r="C567">
+        <v>570</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F567" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>799</v>
+      </c>
+      <c r="B568" t="str">
+        <f t="shared" si="10"/>
+        <v>IGNOU , DELHI</v>
+      </c>
+      <c r="C568">
+        <v>571</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F568" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>800</v>
+      </c>
+      <c r="B569" t="str">
+        <f t="shared" si="10"/>
+        <v>MBICEM GGSIPU , DELHI</v>
+      </c>
+      <c r="C569">
+        <v>572</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F569" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="806">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3176,6 +3176,21 @@
   </si>
   <si>
     <t>MBICEM GGSIPU , DELHI</t>
+  </si>
+  <si>
+    <t>Meghnad Saha Institute of Technology (MSIT) , Kolkata</t>
+  </si>
+  <si>
+    <t>future institute of engineering and technology (FutureIET) , Bareilly</t>
+  </si>
+  <si>
+    <t>Babasaheb Bhimrao Ambedkar University (BBAU) , Lucknow</t>
+  </si>
+  <si>
+    <t>DES's College of Engineering &amp; Technology  (DESCOET), Dhamangaon</t>
+  </si>
+  <si>
+    <t>Dhamangaon</t>
   </si>
 </sst>
 </file>
@@ -3567,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F569"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="A570" sqref="A570"/>
+      <selection activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12784,7 +12799,7 @@
         <v>719</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B569" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B573" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13821,6 +13836,78 @@
       </c>
       <c r="F569" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>801</v>
+      </c>
+      <c r="B570" t="str">
+        <f t="shared" si="10"/>
+        <v>MEGHNAD SAHA INSTITUTE OF TECHNOLOGY (MSIT) , KOLKATA</v>
+      </c>
+      <c r="C570">
+        <v>573</v>
+      </c>
+      <c r="E570" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F570" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>802</v>
+      </c>
+      <c r="B571" t="str">
+        <f t="shared" si="10"/>
+        <v>FUTURE INSTITUTE OF ENGINEERING AND TECHNOLOGY (FUTUREIET) , BAREILLY</v>
+      </c>
+      <c r="C571">
+        <v>574</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F571" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>803</v>
+      </c>
+      <c r="B572" t="str">
+        <f t="shared" si="10"/>
+        <v>BABASAHEB BHIMRAO AMBEDKAR UNIVERSITY (BBAU) , LUCKNOW</v>
+      </c>
+      <c r="C572">
+        <v>575</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F572" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>804</v>
+      </c>
+      <c r="B573" t="str">
+        <f t="shared" si="10"/>
+        <v>DES'S COLLEGE OF ENGINEERING &amp; TECHNOLOGY  (DESCOET), DHAMANGAON</v>
+      </c>
+      <c r="C573">
+        <v>576</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F573" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="808">
   <si>
     <t>Karnataka</t>
   </si>
@@ -3191,6 +3191,12 @@
   </si>
   <si>
     <t>Dhamangaon</t>
+  </si>
+  <si>
+    <t>Amity University, Lucknow</t>
+  </si>
+  <si>
+    <t>Roorkee Engineering and Management Technology Institute , Roorkee</t>
   </si>
 </sst>
 </file>
@@ -3582,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F573"/>
+  <dimension ref="A1:F575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="A565" sqref="A565"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="B575" sqref="B575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12799,7 +12805,7 @@
         <v>719</v>
       </c>
       <c r="B512" t="str">
-        <f t="shared" ref="B512:B573" si="10">UPPER(A512)</f>
+        <f t="shared" ref="B512:B575" si="10">UPPER(A512)</f>
         <v>VIMAL JYOTHI ENGINEERING COLLEGE, KANNUR</v>
       </c>
       <c r="C512">
@@ -13908,6 +13914,42 @@
       </c>
       <c r="F573" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>806</v>
+      </c>
+      <c r="B574" t="str">
+        <f t="shared" si="10"/>
+        <v>AMITY UNIVERSITY, LUCKNOW</v>
+      </c>
+      <c r="C574">
+        <v>577</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>807</v>
+      </c>
+      <c r="B575" t="str">
+        <f t="shared" si="10"/>
+        <v>ROORKEE ENGINEERING AND MANAGEMENT TECHNOLOGY INSTITUTE , ROORKEE</v>
+      </c>
+      <c r="C575">
+        <v>578</v>
+      </c>
+      <c r="E575" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F575" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
